--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H2">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I2">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J2">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N2">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q2">
-        <v>112.9444286745833</v>
+        <v>7.532625504131333</v>
       </c>
       <c r="R2">
-        <v>1016.49985807125</v>
+        <v>67.793629537182</v>
       </c>
       <c r="S2">
-        <v>0.7169517728922691</v>
+        <v>0.04538267564398922</v>
       </c>
       <c r="T2">
-        <v>0.7169517728922691</v>
+        <v>0.04538267564398923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H3">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I3">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J3">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q3">
-        <v>23.89963594958333</v>
+        <v>1.594358409710444</v>
       </c>
       <c r="R3">
-        <v>215.09672354625</v>
+        <v>14.349225687394</v>
       </c>
       <c r="S3">
-        <v>0.1517107710987922</v>
+        <v>0.009605714571694977</v>
       </c>
       <c r="T3">
-        <v>0.1517107710987922</v>
+        <v>0.009605714571694977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H4">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I4">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J4">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N4">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q4">
-        <v>3.66827426</v>
+        <v>0.2932615995266666</v>
       </c>
       <c r="R4">
-        <v>33.01446834</v>
+        <v>2.63935439574</v>
       </c>
       <c r="S4">
-        <v>0.02328557295853512</v>
+        <v>0.001766846903892506</v>
       </c>
       <c r="T4">
-        <v>0.02328557295853512</v>
+        <v>0.001766846903892506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H5">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I5">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J5">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N5">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O5">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P5">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q5">
-        <v>3.6028478325</v>
+        <v>0.2452160088193333</v>
       </c>
       <c r="R5">
-        <v>32.4256304925</v>
+        <v>2.206944079374</v>
       </c>
       <c r="S5">
-        <v>0.02287025726974375</v>
+        <v>0.001477381105015489</v>
       </c>
       <c r="T5">
-        <v>0.02287025726974374</v>
+        <v>0.001477381105015489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H6">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N6">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q6">
-        <v>10.51661218061856</v>
+        <v>112.91501722375</v>
       </c>
       <c r="R6">
-        <v>94.64950962556701</v>
+        <v>1016.23515501375</v>
       </c>
       <c r="S6">
-        <v>0.06675764210945681</v>
+        <v>0.6802920972495433</v>
       </c>
       <c r="T6">
-        <v>0.06675764210945681</v>
+        <v>0.6802920972495434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H7">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>138.884083</v>
       </c>
       <c r="O7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q7">
-        <v>2.225370525038556</v>
+        <v>23.89963594958333</v>
       </c>
       <c r="R7">
-        <v>20.028334725347</v>
+        <v>215.09672354625</v>
       </c>
       <c r="S7">
-        <v>0.01412626866142743</v>
+        <v>0.1439908868049381</v>
       </c>
       <c r="T7">
-        <v>0.01412626866142743</v>
+        <v>0.1439908868049382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H8">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N8">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q8">
-        <v>0.3415645925813334</v>
+        <v>4.3960287875</v>
       </c>
       <c r="R8">
-        <v>3.074081333232</v>
+        <v>39.5642590875</v>
       </c>
       <c r="S8">
-        <v>0.002168193182100011</v>
+        <v>0.02648526048126676</v>
       </c>
       <c r="T8">
-        <v>0.00216819318210001</v>
+        <v>0.02648526048126676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H9">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N9">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O9">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P9">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q9">
-        <v>0.335472531446</v>
+        <v>3.67581925375</v>
       </c>
       <c r="R9">
-        <v>3.019252783014</v>
+        <v>33.08237328375</v>
       </c>
       <c r="S9">
-        <v>0.002129521827675529</v>
+        <v>0.02214613122972511</v>
       </c>
       <c r="T9">
-        <v>0.002129521827675529</v>
+        <v>0.02214613122972511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.122161</v>
+      </c>
+      <c r="I10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>218.721583</v>
+      </c>
+      <c r="N10">
+        <v>656.164749</v>
+      </c>
+      <c r="O10">
+        <v>0.7793342808141792</v>
+      </c>
+      <c r="P10">
+        <v>0.7793342808141792</v>
+      </c>
+      <c r="Q10">
+        <v>8.906415766954334</v>
+      </c>
+      <c r="R10">
+        <v>80.15774190258901</v>
+      </c>
+      <c r="S10">
+        <v>0.05365950792064662</v>
+      </c>
+      <c r="T10">
+        <v>0.05365950792064662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.122161</v>
+      </c>
+      <c r="I11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.29469433333333</v>
+      </c>
+      <c r="N11">
+        <v>138.884083</v>
+      </c>
+      <c r="O11">
+        <v>0.164954193449581</v>
+      </c>
+      <c r="P11">
+        <v>0.164954193449581</v>
+      </c>
+      <c r="Q11">
+        <v>1.885135384818111</v>
+      </c>
+      <c r="R11">
+        <v>16.966218463363</v>
+      </c>
+      <c r="S11">
+        <v>0.01135759207294789</v>
+      </c>
+      <c r="T11">
+        <v>0.01135759207294789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.122161</v>
+      </c>
+      <c r="I12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.515309999999999</v>
+      </c>
+      <c r="N12">
+        <v>25.54593</v>
+      </c>
+      <c r="O12">
+        <v>0.03034118948727519</v>
+      </c>
+      <c r="P12">
+        <v>0.03034118948727519</v>
+      </c>
+      <c r="Q12">
+        <v>0.3467462616366667</v>
+      </c>
+      <c r="R12">
+        <v>3.12071635473</v>
+      </c>
+      <c r="S12">
+        <v>0.002089082102115919</v>
+      </c>
+      <c r="T12">
+        <v>0.002089082102115919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.122161</v>
+      </c>
+      <c r="I13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.120231</v>
+      </c>
+      <c r="N13">
+        <v>21.360693</v>
+      </c>
+      <c r="O13">
+        <v>0.02537033624896462</v>
+      </c>
+      <c r="P13">
+        <v>0.02537033624896462</v>
+      </c>
+      <c r="Q13">
+        <v>0.2899381797303334</v>
+      </c>
+      <c r="R13">
+        <v>2.609443617573</v>
+      </c>
+      <c r="S13">
+        <v>0.001746823914224019</v>
+      </c>
+      <c r="T13">
+        <v>0.001746823914224019</v>
       </c>
     </row>
   </sheetData>
